--- a/unit9-integer optimization/EvenStarFarmRevisited.xlsx
+++ b/unit9-integer optimization/EvenStarFarmRevisited.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="0" windowWidth="18200" windowHeight="15120" tabRatio="500"/>
+    <workbookView xWindow="3555" yWindow="0" windowWidth="18195" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -152,13 +152,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,8 +166,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -465,10 +472,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,13 +484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -524,10 +531,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -853,22 +865,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -877,14 +890,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -893,14 +906,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1">
+    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -917,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -934,7 +947,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -951,7 +964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -968,7 +981,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -985,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1015,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" thickBot="1">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1053,21 +1066,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1076,14 +1089,14 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1096,7 +1109,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1124,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16" thickBot="1">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -1126,21 +1139,21 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>21</v>
       </c>
@@ -1149,14 +1162,14 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="16" thickBot="1">
+    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1184,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1199,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1214,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1229,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1244,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1259,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1274,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1289,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="16" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
@@ -1291,21 +1304,21 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="31" thickBot="1">
+    <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -1314,7 +1327,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="16" thickBot="1">
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <f>SUMPRODUCT(B26:D33,C6:E13) - B19*(SUM(B26:B33)/119) - B20 - C19*(SUMPRODUCT(C26:C33,D6:D13)/400) - C20 - D20</f>
         <v>49956.391768067224</v>
@@ -1324,14 +1337,14 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -1346,12 +1359,12 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="16">
-        <f>SUM(B26:D26)</f>
+        <f t="shared" ref="B40:B47" si="0">SUM(B26:D26)</f>
         <v>406</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1362,12 +1375,12 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="16">
-        <f>SUM(B27:D27)</f>
+        <f t="shared" si="0"/>
         <v>608</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1378,12 +1391,12 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="16">
-        <f>SUM(B28:D28)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1394,12 +1407,12 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="16">
-        <f>SUM(B29:D29)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1410,12 +1423,12 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="16">
-        <f>SUM(B30:D30)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1426,12 +1439,12 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="16">
-        <f>SUM(B31:D31)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1442,12 +1455,12 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="16">
-        <f>SUM(B32:D32)</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1458,12 +1471,12 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="16">
-        <f>SUM(B33:D33)</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1474,14 +1487,14 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1510,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1526,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>41</v>
       </c>
@@ -1530,6 +1543,7 @@
       <c r="E51" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
